--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E6A7A-8E70-4BDB-A581-C4D78CC37679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A15C9-BC75-44FA-A58A-156B7B5F52D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -224,16 +224,82 @@
     <t>Strecke P2-P3</t>
   </si>
   <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>polares Anhängen über Punkt P3</t>
   </si>
   <si>
     <t>FSP2</t>
   </si>
   <si>
-    <t>I</t>
+    <t>alpha(P3)</t>
+  </si>
+  <si>
+    <t>beta (P2)</t>
+  </si>
+  <si>
+    <t>t(P2,FSP2)</t>
+  </si>
+  <si>
+    <t>(Wert aus Handriss -&gt; unterschiedlich zu Tabelle)</t>
+  </si>
+  <si>
+    <t>Berechnung ausanderen Koordinatenpunkten</t>
+  </si>
+  <si>
+    <t>von A</t>
+  </si>
+  <si>
+    <t>von E</t>
+  </si>
+  <si>
+    <t>Winkel alpha (A) im Dreieck AEK</t>
+  </si>
+  <si>
+    <t>Seite zu K (aus Handriss)</t>
+  </si>
+  <si>
+    <t>gon</t>
+  </si>
+  <si>
+    <t>t(P0,A)</t>
+  </si>
+  <si>
+    <t>t(A,K)</t>
+  </si>
+  <si>
+    <t>yk</t>
+  </si>
+  <si>
+    <t>xk</t>
+  </si>
+  <si>
+    <t>von M</t>
+  </si>
+  <si>
+    <t>von H</t>
+  </si>
+  <si>
+    <t>Seite zu D (aus Handriss)</t>
+  </si>
+  <si>
+    <t>Winkel alpha(H)</t>
+  </si>
+  <si>
+    <t>H-M</t>
+  </si>
+  <si>
+    <t>t(FSP2,M)</t>
+  </si>
+  <si>
+    <t>t(M,D)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>xd</t>
   </si>
 </sst>
 </file>
@@ -303,6 +369,1016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$W$4:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>75.317828093290672</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>84.442221719475583</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>13.088619263575319</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>8.664302048364835</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>60.155254699332744</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>71.2781684188881</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>20.329895936724277</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000">
+                  <c:v>1.80982654993349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.167580729885643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.592777905485022</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000">
+                  <c:v>9.0231831486844971</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000">
+                  <c:v>14.792257221406842</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>60.524104664456075</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.000">
+                  <c:v>64.299146709762724</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.000">
+                  <c:v>68.53873951631914</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.000">
+                  <c:v>-199.80074199664847</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.000">
+                  <c:v>-28.40719330236314</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.000">
+                  <c:v>85.352682393013666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$X$4:$X$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>8.1877278812021643</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>4.0551907112629237E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>19.589835266616333</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>169.20628400894537</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>170.87693289077549</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>20.858078899331623</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>37.24980636744165</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000">
+                  <c:v>156.54738052360557</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>156.23652558006938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.629370882548109</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000">
+                  <c:v>154.79155018371983</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000">
+                  <c:v>33.737630773642707</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>156.41769206716418</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.000">
+                  <c:v>156.66054330729543</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.000">
+                  <c:v>34.944172370829314</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.000">
+                  <c:v>-8.925441030487848</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.000">
+                  <c:v>111.91396578480352</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.000">
+                  <c:v>68.656874041553564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A83-4CF6-ACBC-4ACA68910ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404831216"/>
+        <c:axId val="404833184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404831216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404833184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404833184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404831216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>75453</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A4C5A1-1719-4BAC-8029-E7F8B1AAD827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,17 +1689,18 @@
     <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="16" max="16" width="22.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -658,7 +1735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +1752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P4" t="s">
         <v>29</v>
       </c>
@@ -698,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -735,7 +1812,7 @@
         <v>181.83600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -784,7 +1861,7 @@
         <v>183.15600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -824,7 +1901,7 @@
         <v>8.1877278812021643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -841,7 +1918,7 @@
         <v>298.88200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -875,7 +1952,7 @@
         <v>4.0551907112629237E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -921,7 +1998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -952,11 +2029,11 @@
       <c r="V11" t="s">
         <v>4</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <f>Z11*SIN(Y11*(PI()/200))</f>
         <v>13.088619263575319</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
         <f>Z11*COS(Y11*(PI()/200))</f>
         <v>19.589835266616333</v>
       </c>
@@ -972,7 +2049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P12" t="s">
         <v>14</v>
       </c>
@@ -983,11 +2060,11 @@
       <c r="V12" t="s">
         <v>20</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="2">
         <f>W5+SIN(Y12*(PI()/200))*Z12</f>
         <v>8.664302048364835</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="2">
         <f>X5+COS(Y12*(PI()/200))*Z12</f>
         <v>169.20628400894537</v>
       </c>
@@ -1003,18 +2080,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V13" t="s">
         <v>16</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <f>W6+SIN(Y13*(PI()/200))*Z13</f>
         <v>60.155254699332744</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="2">
         <f>X6+COS(Y13*(PI()/200))*Z13</f>
         <v>170.87693289077549</v>
       </c>
@@ -1030,7 +2107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="Q14">
         <f>200+Q12+P29-400+Q10</f>
         <v>196.68349999999998</v>
@@ -1049,11 +2126,16 @@
       <c r="V14" t="s">
         <v>41</v>
       </c>
-      <c r="AA14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="W14" s="2">
+        <f>Q77</f>
+        <v>71.2781684188881</v>
+      </c>
+      <c r="X14" s="2">
+        <f>Q78</f>
+        <v>20.858078899331623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1092,11 +2174,11 @@
       <c r="V15" t="s">
         <v>23</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="2">
         <f>W27+Z15*SIN(Y15*(PI()/200))</f>
         <v>20.329895936724277</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="2">
         <f>X27+Z15*COS(Y15*(PI()/200))</f>
         <v>37.24980636744165</v>
       </c>
@@ -1112,7 +2194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1150,15 +2232,15 @@
       <c r="V16" t="s">
         <v>22</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <f>W27+Z16*SIN(Y16*(PI()/200))</f>
         <v>1.80982654993349</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="2">
         <f>X27+Z16*COS(Y16*(PI()/200))</f>
         <v>156.54738052360557</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <f>C42-200-R47</f>
         <v>37.886860690461141</v>
       </c>
@@ -1169,10 +2251,21 @@
       <c r="AA16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="V17" t="s">
         <v>42</v>
+      </c>
+      <c r="W17">
+        <f>W28+Z17*SIN((Y17-(200-Q57))*(PI()/200))</f>
+        <v>52.167580729885643</v>
+      </c>
+      <c r="X17">
+        <f>X28+Z17*COS((Y17-(200-Q57))*(PI()/200))</f>
+        <v>156.23652558006938</v>
       </c>
       <c r="Y17">
         <f>C50</f>
@@ -1183,10 +2276,10 @@
         <v>93.656000000000006</v>
       </c>
       <c r="AA17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1226,6 +2319,14 @@
       <c r="V18" t="s">
         <v>43</v>
       </c>
+      <c r="W18">
+        <f>W28+Z18*SIN((Y18-(200-Q57))*(PI()/200))</f>
+        <v>54.592777905485022</v>
+      </c>
+      <c r="X18">
+        <f>X28+Z18*COS((Y18-(200-Q57))*(PI()/200))</f>
+        <v>35.629370882548109</v>
+      </c>
       <c r="Y18">
         <f>C49</f>
         <v>251.05699999999999</v>
@@ -1234,8 +2335,11 @@
         <f>K49</f>
         <v>45.133000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -1264,14 +2368,8 @@
         <f>-R29*(ABS(T18)/(ABS(T18)+ABS(T14)+ABS(T10)))+T18</f>
         <v>-8.187322362131038</v>
       </c>
-      <c r="V19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P20" t="s">
         <v>29</v>
       </c>
@@ -1288,11 +2386,11 @@
       <c r="V20" t="s">
         <v>19</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <f>W5+SIN(Y20*(PI()/200))*Z20</f>
         <v>9.0231831486844971</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="2">
         <f>X5+COS(Y20*(PI()/200))*Z20</f>
         <v>154.79155018371983</v>
       </c>
@@ -1308,15 +2406,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="W21" s="2">
+        <f>Q68</f>
+        <v>14.792257221406842</v>
+      </c>
+      <c r="X21" s="2">
+        <f>Q69</f>
+        <v>33.737630773642707</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1359,11 +2468,11 @@
       <c r="V22" t="s">
         <v>17</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <f>W6+SIN(Y22*(PI()/200))*Z22</f>
         <v>60.524104664456075</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="2">
         <f>X6+COS(Y22*(PI()/200))*Z22</f>
         <v>156.41769206716418</v>
       </c>
@@ -1379,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -1406,35 +2515,57 @@
       <c r="K23">
         <v>75.316999999999993</v>
       </c>
+      <c r="W23" s="2">
+        <f>W28+Z23*SIN((Y23-(200-Q57))*(PI()/200))</f>
+        <v>64.299146709762724</v>
+      </c>
+      <c r="X23" s="2">
+        <f>X28+Z23*COS((Y23-(200-Q57))*(PI()/200))</f>
+        <v>156.66054330729543</v>
+      </c>
       <c r="Y23">
         <f>C51</f>
-        <v>399.98399999999998</v>
+        <v>388.37</v>
       </c>
       <c r="Z23">
         <f>K51</f>
-        <v>114.736</v>
+        <v>90.486999999999995</v>
       </c>
       <c r="AA23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P24" t="s">
         <v>2</v>
       </c>
       <c r="V24" t="s">
         <v>45</v>
       </c>
-      <c r="Y24">
-        <f>C48</f>
-        <v>236.09100000000001</v>
+      <c r="W24" s="2">
+        <f>W28+Z24*SIN((Y24-(200-Q57))*(PI()/200))</f>
+        <v>68.53873951631914</v>
+      </c>
+      <c r="X24" s="2">
+        <f>X28+Z24*COS((Y24-(200-Q57))*(PI()/200))</f>
+        <v>34.944172370829314</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>C48-(200-Q57)</f>
+        <v>232.77181292197565</v>
       </c>
       <c r="Z24">
         <f>K48</f>
         <v>37.673000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1459,11 +2590,11 @@
       <c r="V25" t="s">
         <v>1</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="2">
         <f>Z25*SIN(Y25*(PI()/200))</f>
         <v>-199.80074199664847</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="2">
         <f>Z25*COS(Y25*(PI()/200))</f>
         <v>-8.925441030487848</v>
       </c>
@@ -1479,7 +2610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -1506,8 +2637,10 @@
       <c r="R26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -1528,16 +2661,16 @@
       <c r="V27" t="s">
         <v>53</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="2">
         <f>Q48</f>
         <v>-28.40719330236314</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="2">
         <f>Q49</f>
         <v>111.91396578480352</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -1556,16 +2689,16 @@
       <c r="V28" t="s">
         <v>54</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="2">
         <f>Q54</f>
         <v>85.352682393013666</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="2">
         <f>Q55</f>
         <v>68.656874041553564</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P29">
         <f>1200-P27</f>
         <v>9.9999999999909051E-3</v>
@@ -1575,7 +2708,7 @@
         <v>8.3888449548226163E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1583,7 +2716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1616,7 +2749,7 @@
         <v>2.4999999999977263E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -1818,10 +2951,11 @@
       <c r="P46" t="s">
         <v>51</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="2">
         <f>T6</f>
         <v>181.83600000000001</v>
       </c>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
@@ -1836,11 +2970,11 @@
       <c r="P47" t="s">
         <v>52</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="2">
         <f>(SIN((400-C41)*(PI()/200))*K41)/Q46</f>
         <v>0.12397059244175258</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="2">
         <f>ASIN(Q47)*(400/PI())</f>
         <v>15.825139309538846</v>
       </c>
@@ -1858,10 +2992,11 @@
       <c r="P48" t="s">
         <v>31</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="2">
         <f>S4+K40*SIN(-R47*(PI()/200))</f>
         <v>-28.40719330236314</v>
       </c>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
@@ -1876,10 +3011,11 @@
       <c r="P49" t="s">
         <v>32</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="2">
         <f>S4+K40*COS(-R47*(PI()/200))</f>
         <v>111.91396578480352</v>
       </c>
+      <c r="R49" s="2"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
@@ -1891,39 +3027,47 @@
       <c r="K50">
         <v>93.656000000000006</v>
       </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>28</v>
       </c>
       <c r="C51">
-        <v>399.98399999999998</v>
+        <v>388.37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>114.736</v>
+        <v>90.486999999999995</v>
       </c>
       <c r="P51" t="s">
         <v>61</v>
       </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="P52" t="s">
         <v>62</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="2">
         <f>K22</f>
         <v>175.19900000000001</v>
       </c>
+      <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="P53" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q53">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="2">
         <f>(SIN((400-C47)*(PI()/200))*K46)/Q52</f>
         <v>1.8617090403772883E-2</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="2">
         <f>ASIN(Q53)*(400/PI())</f>
         <v>2.3705385209991583</v>
       </c>
@@ -1932,25 +3076,250 @@
       <c r="P54" t="s">
         <v>31</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="2">
         <f>W7+K47*SIN(((200-Q37)-R53)*(PI()/200))</f>
         <v>85.352682393013666</v>
       </c>
+      <c r="R54" s="2"/>
       <c r="S54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="P55" t="s">
         <v>32</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="2">
         <f>X7+K47*COS(((200-Q37)-R53)*(PI()/200))</f>
         <v>68.656874041553564</v>
+      </c>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P56" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>(SIN((400-C47)*(PI()/200))*K47)/Q52</f>
+        <v>9.8127644897336424E-3</v>
+      </c>
+      <c r="R56" s="2">
+        <f>ASIN(Q56)</f>
+        <v>9.8129219756405497E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P57" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>Q36+200+(400-I23)+R56-400</f>
+        <v>196.68081292197564</v>
+      </c>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>31</v>
+      </c>
+      <c r="R62" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q63">
+        <f>W11</f>
+        <v>13.088619263575319</v>
+      </c>
+      <c r="R63" s="2">
+        <f>X11</f>
+        <v>19.589835266616333</v>
+      </c>
+      <c r="S63">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P64" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q64" s="2">
+        <f>W15</f>
+        <v>20.329895936724277</v>
+      </c>
+      <c r="R64" s="2">
+        <f>X15</f>
+        <v>37.24980636744165</v>
+      </c>
+      <c r="S64">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="65" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q65">
+        <f>ATAN(S64/S63)*(200/PI())</f>
+        <v>45.12726318413641</v>
+      </c>
+      <c r="R65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q66">
+        <f>Y11</f>
+        <v>37.498000000000005</v>
+      </c>
+      <c r="R66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q67">
+        <f>Q65-Q66</f>
+        <v>7.6292631841364056</v>
+      </c>
+    </row>
+    <row r="68" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q68">
+        <f>Q63+S63*SIN(Q67*(PI()/200))</f>
+        <v>14.792257221406842</v>
+      </c>
+    </row>
+    <row r="69" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q69">
+        <f>R63+S63*COS(Q67*(PI()/200))</f>
+        <v>33.737630773642707</v>
+      </c>
+    </row>
+    <row r="71" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="2">
+        <f>W24</f>
+        <v>68.53873951631914</v>
+      </c>
+      <c r="R72" s="2">
+        <f>X24</f>
+        <v>34.944172370829314</v>
+      </c>
+      <c r="S72">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="73" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q73">
+        <f>W18</f>
+        <v>54.592777905485022</v>
+      </c>
+      <c r="R73">
+        <f>X18</f>
+        <v>35.629370882548109</v>
+      </c>
+      <c r="S73" t="s">
+        <v>83</v>
+      </c>
+      <c r="T73">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="74" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q74">
+        <f>ATAN(S72/T73)*(200/PI())</f>
+        <v>55.221409395296327</v>
+      </c>
+    </row>
+    <row r="75" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q75">
+        <f>Y24</f>
+        <v>232.77181292197565</v>
+      </c>
+    </row>
+    <row r="76" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76">
+        <f>Q75-(90/2)</f>
+        <v>187.77181292197565</v>
+      </c>
+      <c r="R76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q77">
+        <f>Q72+S72*SIN(Q76*(PI()/200))</f>
+        <v>71.2781684188881</v>
+      </c>
+    </row>
+    <row r="78" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q78">
+        <f>R72+S72*COS(Q76*(PI()/200))</f>
+        <v>20.858078899331623</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A15C9-BC75-44FA-A58A-156B7B5F52D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E97ECB-45C7-4987-A2F2-9ECB26BCEBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -300,6 +301,168 @@
   </si>
   <si>
     <t>xd</t>
+  </si>
+  <si>
+    <t>Entfernung GK-reduziert</t>
+  </si>
+  <si>
+    <t>GK-Reduktion</t>
+  </si>
+  <si>
+    <t>Rechtswert</t>
+  </si>
+  <si>
+    <t>mittlere Höhe</t>
+  </si>
+  <si>
+    <t>Ordinatenwert</t>
+  </si>
+  <si>
+    <t>s_KorrekturWert</t>
+  </si>
+  <si>
+    <t>Koordinaten Polygonzug</t>
+  </si>
+  <si>
+    <t>t(Obelisk, P3021A)</t>
+  </si>
+  <si>
+    <t>Richtungswinkel A,Obelisk aus Vektorenberechung</t>
+  </si>
+  <si>
+    <t>OP0</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>Hochwert</t>
+  </si>
+  <si>
+    <t>T(P3021A,P1)</t>
+  </si>
+  <si>
+    <t>T(P1,P2)</t>
+  </si>
+  <si>
+    <t>T(P2,P3)</t>
+  </si>
+  <si>
+    <t>T(P3,P3021A)</t>
+  </si>
+  <si>
+    <t>Formel: yi = y(i-1) + s(i-1,i)*sin(t(i-1,i))</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Koordinaten aus Polygonzugberechnung</t>
+  </si>
+  <si>
+    <t>Koordinaten aus polarem Anhängen an Polygonpunkt</t>
+  </si>
+  <si>
+    <t>von P3021A</t>
+  </si>
+  <si>
+    <t>t(P3021A,A)</t>
+  </si>
+  <si>
+    <t>von P1</t>
+  </si>
+  <si>
+    <t>t(P1,B)</t>
+  </si>
+  <si>
+    <t>t(P1,J)</t>
+  </si>
+  <si>
+    <t>von P2</t>
+  </si>
+  <si>
+    <t>t(P2, C)</t>
+  </si>
+  <si>
+    <t>t(P2, L)</t>
+  </si>
+  <si>
+    <t>Süd FSP1</t>
+  </si>
+  <si>
+    <t>t(P3021A, FSP1)</t>
+  </si>
+  <si>
+    <t>alpha(P3021A,FSP1)</t>
+  </si>
+  <si>
+    <t>Nord FSP2</t>
+  </si>
+  <si>
+    <t>alpha(P2,FSP2)</t>
+  </si>
+  <si>
+    <t>t(P2, FSP2)</t>
+  </si>
+  <si>
+    <t>Punktkoordinaten</t>
+  </si>
+  <si>
+    <t>von FSP1</t>
+  </si>
+  <si>
+    <t>t(FSP1, E)</t>
+  </si>
+  <si>
+    <t>t(FSP1, F)</t>
+  </si>
+  <si>
+    <t>von FSP2</t>
+  </si>
+  <si>
+    <t>t(FSP2,H)</t>
+  </si>
+  <si>
+    <t>t(FSP2,G)</t>
+  </si>
+  <si>
+    <t>t(FSP2,L)</t>
+  </si>
+  <si>
+    <t>Berechnen von Koordinatenpunkten aus Vektoren</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>alpha (A)</t>
+  </si>
+  <si>
+    <t>t(A, K)</t>
+  </si>
+  <si>
+    <t>t(P3021, A)- alpha</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>alpha(H)</t>
+  </si>
+  <si>
+    <t>t(H, D)</t>
+  </si>
+  <si>
+    <t>t(FSP2, H)-alpha</t>
+  </si>
+  <si>
+    <t>HD</t>
   </si>
 </sst>
 </file>
@@ -309,7 +472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +488,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -354,6 +549,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -477,19 +677,19 @@
                   <c:v>60.155254699332744</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>71.2781684188881</c:v>
+                  <c:v>72.403770184881495</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>20.329895936724277</c:v>
+                  <c:v>24.790949495208316</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000">
-                  <c:v>1.80982654993349</c:v>
+                  <c:v>21.203136861863506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.167580729885643</c:v>
+                  <c:v>53.293182495879037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.592777905485022</c:v>
+                  <c:v>55.718379671478417</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
                   <c:v>9.0231831486844971</c:v>
@@ -501,19 +701,19 @@
                   <c:v>60.524104664456075</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>64.299146709762724</c:v>
+                  <c:v>65.424748475756118</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>68.53873951631914</c:v>
+                  <c:v>69.664341282312535</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
                   <c:v>-199.80074199664847</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.000">
-                  <c:v>-28.40719330236314</c:v>
+                  <c:v>-14.314016515102081</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.000">
-                  <c:v>85.352682393013666</c:v>
+                  <c:v>86.47828415900706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,19 +749,19 @@
                   <c:v>170.87693289077549</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>20.858078899331623</c:v>
+                  <c:v>20.830648678737667</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>37.24980636744165</c:v>
+                  <c:v>34.442148108617786</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000">
-                  <c:v>156.54738052360557</c:v>
+                  <c:v>155.11539191247425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.23652558006938</c:v>
+                  <c:v>156.20909535947544</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.629370882548109</c:v>
+                  <c:v>35.601940661954153</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
                   <c:v>154.79155018371983</c:v>
@@ -573,19 +773,19 @@
                   <c:v>156.41769206716418</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>156.66054330729543</c:v>
+                  <c:v>156.63311308670148</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>34.944172370829314</c:v>
+                  <c:v>34.916742150235358</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
                   <c:v>-8.925441030487848</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.000">
-                  <c:v>111.91396578480352</c:v>
+                  <c:v>114.57230599148026</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.000">
-                  <c:v>68.656874041553564</c:v>
+                  <c:v>68.629443820959608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,6 +984,723 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6467407407407404E-2"/>
+          <c:y val="1.9836848714287578E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$S$3:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4468045.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4468045.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4468179.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4468054.9543096377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468109.0944624497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4468235.1726084556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4468179.0458679004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4468175.229549001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4468069.9052453917</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4468080.0035543777</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4468106.3904536339</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4468116.526418779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$T$3:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5334182.2300000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5334162.2300000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5334489.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5334622.2571533676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5334674.6090366123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5334552.9751638584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5334489.3460221244</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5334512.5998251764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5334618.93791526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5334608.6467000917</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5334655.2876631785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5334644.9707190217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7687-4825-BCC9-1655483DAA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$S$17:$S$32</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>389,685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4468175,23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113,908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4468069,905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131,686</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468080,004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208,852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4468106,39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184,359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4468116,526</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$S$17:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>4468175.229549001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4468069.9052453917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468080.0035543777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4468106.3904536339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4468116.526418779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$T$17:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>5334512.5998251764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5334618.93791526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5334608.6467000917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5334655.2876631785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5334644.9707190217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7687-4825-BCC9-1655483DAA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$R$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$S$35:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>4468090.472752885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4468192.4401309593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$T$35:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>5334563.4276468353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5334595.7656415766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7687-4825-BCC9-1655483DAA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FSP_Punkte</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$S$45:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>4468173.6965218969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4468088.8297495879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4468201.6224343311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4468192.9432726614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4468108.0155444238</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4468110.8721848391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$T$45:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="2">
+                  <c:v>5334531.44704061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5334617.2989174873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5334559.2314600637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5334550.6385281719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5334636.2963421168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5334634.9249212788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7687-4825-BCC9-1655483DAA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>KP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$S$71:$S$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>4468164.3297255365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4468207.4280609814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$T$71:$T$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>5334521.7789508672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5334538.6292689387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7687-4825-BCC9-1655483DAA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409041192"/>
+        <c:axId val="412998184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409041192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412998184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412998184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409041192"/>
+        <c:crossesAt val="4468000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -824,7 +1741,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1381,6 +2854,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1100348</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>67779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>377698</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>170862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3E0733-55FA-4698-B4F5-848EFC0DC11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1680,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView topLeftCell="I32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2128,11 +3642,11 @@
       </c>
       <c r="W14" s="2">
         <f>Q77</f>
-        <v>71.2781684188881</v>
+        <v>72.403770184881495</v>
       </c>
       <c r="X14" s="2">
         <f>Q78</f>
-        <v>20.858078899331623</v>
+        <v>20.830648678737667</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -2176,15 +3690,15 @@
       </c>
       <c r="W15" s="2">
         <f>W27+Z15*SIN(Y15*(PI()/200))</f>
-        <v>20.329895936724277</v>
+        <v>24.790949495208316</v>
       </c>
       <c r="X15" s="2">
         <f>X27+Z15*COS(Y15*(PI()/200))</f>
-        <v>37.24980636744165</v>
+        <v>34.442148108617786</v>
       </c>
       <c r="Y15">
         <f>C43-200-R47</f>
-        <v>163.18386069046116</v>
+        <v>171.0964303452306</v>
       </c>
       <c r="Z15">
         <f>K43</f>
@@ -2234,15 +3748,15 @@
       </c>
       <c r="W16" s="2">
         <f>W27+Z16*SIN(Y16*(PI()/200))</f>
-        <v>1.80982654993349</v>
+        <v>21.203136861863506</v>
       </c>
       <c r="X16" s="2">
         <f>X27+Z16*COS(Y16*(PI()/200))</f>
-        <v>156.54738052360557</v>
+        <v>155.11539191247425</v>
       </c>
       <c r="Y16" s="2">
         <f>C42-200-R47</f>
-        <v>37.886860690461141</v>
+        <v>45.799430345230569</v>
       </c>
       <c r="Z16">
         <f>K42</f>
@@ -2261,11 +3775,11 @@
       </c>
       <c r="W17">
         <f>W28+Z17*SIN((Y17-(200-Q57))*(PI()/200))</f>
-        <v>52.167580729885643</v>
+        <v>53.293182495879037</v>
       </c>
       <c r="X17">
         <f>X28+Z17*COS((Y17-(200-Q57))*(PI()/200))</f>
-        <v>156.23652558006938</v>
+        <v>156.20909535947544</v>
       </c>
       <c r="Y17">
         <f>C50</f>
@@ -2321,11 +3835,11 @@
       </c>
       <c r="W18">
         <f>W28+Z18*SIN((Y18-(200-Q57))*(PI()/200))</f>
-        <v>54.592777905485022</v>
+        <v>55.718379671478417</v>
       </c>
       <c r="X18">
         <f>X28+Z18*COS((Y18-(200-Q57))*(PI()/200))</f>
-        <v>35.629370882548109</v>
+        <v>35.601940661954153</v>
       </c>
       <c r="Y18">
         <f>C49</f>
@@ -2517,11 +4031,11 @@
       </c>
       <c r="W23" s="2">
         <f>W28+Z23*SIN((Y23-(200-Q57))*(PI()/200))</f>
-        <v>64.299146709762724</v>
+        <v>65.424748475756118</v>
       </c>
       <c r="X23" s="2">
         <f>X28+Z23*COS((Y23-(200-Q57))*(PI()/200))</f>
-        <v>156.66054330729543</v>
+        <v>156.63311308670148</v>
       </c>
       <c r="Y23">
         <f>C51</f>
@@ -2547,11 +4061,11 @@
       </c>
       <c r="W24" s="2">
         <f>W28+Z24*SIN((Y24-(200-Q57))*(PI()/200))</f>
-        <v>68.53873951631914</v>
+        <v>69.664341282312535</v>
       </c>
       <c r="X24" s="2">
         <f>X28+Z24*COS((Y24-(200-Q57))*(PI()/200))</f>
-        <v>34.944172370829314</v>
+        <v>34.916742150235358</v>
       </c>
       <c r="Y24" s="2">
         <f>C48-(200-Q57)</f>
@@ -2663,11 +4177,11 @@
       </c>
       <c r="W27" s="2">
         <f>Q48</f>
-        <v>-28.40719330236314</v>
+        <v>-14.314016515102081</v>
       </c>
       <c r="X27" s="2">
         <f>Q49</f>
-        <v>111.91396578480352</v>
+        <v>114.57230599148026</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
@@ -2691,11 +4205,11 @@
       </c>
       <c r="W28" s="2">
         <f>Q54</f>
-        <v>85.352682393013666</v>
+        <v>86.47828415900706</v>
       </c>
       <c r="X28" s="2">
         <f>Q55</f>
-        <v>68.656874041553564</v>
+        <v>68.629443820959608</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -2975,8 +4489,8 @@
         <v>0.12397059244175258</v>
       </c>
       <c r="R47" s="2">
-        <f>ASIN(Q47)*(400/PI())</f>
-        <v>15.825139309538846</v>
+        <f>ASIN(Q47)*(200/PI())</f>
+        <v>7.9125696547694231</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -2994,7 +4508,7 @@
       </c>
       <c r="Q48" s="2">
         <f>S4+K40*SIN(-R47*(PI()/200))</f>
-        <v>-28.40719330236314</v>
+        <v>-14.314016515102081</v>
       </c>
       <c r="R48" s="2"/>
     </row>
@@ -3013,7 +4527,7 @@
       </c>
       <c r="Q49" s="2">
         <f>S4+K40*COS(-R47*(PI()/200))</f>
-        <v>111.91396578480352</v>
+        <v>114.57230599148026</v>
       </c>
       <c r="R49" s="2"/>
     </row>
@@ -3068,8 +4582,8 @@
         <v>1.8617090403772883E-2</v>
       </c>
       <c r="R53" s="2">
-        <f>ASIN(Q53)*(400/PI())</f>
-        <v>2.3705385209991583</v>
+        <f>ASIN(Q53)*(200/PI())</f>
+        <v>1.1852692604995791</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.35">
@@ -3078,7 +4592,7 @@
       </c>
       <c r="Q54" s="2">
         <f>W7+K47*SIN(((200-Q37)-R53)*(PI()/200))</f>
-        <v>85.352682393013666</v>
+        <v>86.47828415900706</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" t="s">
@@ -3091,7 +4605,7 @@
       </c>
       <c r="Q55" s="2">
         <f>X7+K47*COS(((200-Q37)-R53)*(PI()/200))</f>
-        <v>68.656874041553564</v>
+        <v>68.629443820959608</v>
       </c>
       <c r="R55" s="2"/>
     </row>
@@ -3159,11 +4673,11 @@
       </c>
       <c r="Q64" s="2">
         <f>W15</f>
-        <v>20.329895936724277</v>
+        <v>24.790949495208316</v>
       </c>
       <c r="R64" s="2">
         <f>X15</f>
-        <v>37.24980636744165</v>
+        <v>34.442148108617786</v>
       </c>
       <c r="S64">
         <v>12.22</v>
@@ -3240,11 +4754,11 @@
       </c>
       <c r="Q72" s="2">
         <f>W24</f>
-        <v>68.53873951631914</v>
+        <v>69.664341282312535</v>
       </c>
       <c r="R72" s="2">
         <f>X24</f>
-        <v>34.944172370829314</v>
+        <v>34.916742150235358</v>
       </c>
       <c r="S72">
         <v>14.35</v>
@@ -3256,11 +4770,11 @@
       </c>
       <c r="Q73">
         <f>W18</f>
-        <v>54.592777905485022</v>
+        <v>55.718379671478417</v>
       </c>
       <c r="R73">
         <f>X18</f>
-        <v>35.629370882548109</v>
+        <v>35.601940661954153</v>
       </c>
       <c r="S73" t="s">
         <v>83</v>
@@ -3305,7 +4819,7 @@
       </c>
       <c r="Q77">
         <f>Q72+S72*SIN(Q76*(PI()/200))</f>
-        <v>71.2781684188881</v>
+        <v>72.403770184881495</v>
       </c>
     </row>
     <row r="78" spans="16:20" x14ac:dyDescent="0.35">
@@ -3314,7 +4828,1462 @@
       </c>
       <c r="Q78">
         <f>R72+S72*COS(Q76*(PI()/200))</f>
-        <v>20.858078899331623</v>
+        <v>20.830648678737667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
+  <dimension ref="A2:X81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S78" sqref="S78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" customWidth="1"/>
+    <col min="17" max="17" width="16.08984375" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" customWidth="1"/>
+    <col min="22" max="22" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>6380000</v>
+      </c>
+      <c r="R3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3">
+        <f>S4</f>
+        <v>4468045.5</v>
+      </c>
+      <c r="T3">
+        <f>T4+20</f>
+        <v>5334182.2300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>515</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>4468045.5</v>
+      </c>
+      <c r="T4">
+        <v>5334162.2300000004</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5">
+        <f>S5-4500000</f>
+        <v>-31820.969999999739</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5">
+        <v>4468179.03</v>
+      </c>
+      <c r="T5">
+        <v>5334489.3499999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>102.842</v>
+      </c>
+      <c r="D6">
+        <v>302.83999999999997</v>
+      </c>
+      <c r="F6">
+        <f>C6-C5</f>
+        <v>102.842</v>
+      </c>
+      <c r="G6">
+        <f>D6-D5</f>
+        <v>102.83999999999997</v>
+      </c>
+      <c r="H6">
+        <v>102.84099999999999</v>
+      </c>
+      <c r="I6">
+        <v>102.842</v>
+      </c>
+      <c r="K6">
+        <v>181.834</v>
+      </c>
+      <c r="L6" s="2">
+        <f>K6*P6+K6</f>
+        <v>181.82158385404369</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6">
+        <f>((P5^2)/(2*P3^2))-(P4/P3)</f>
+        <v>-6.828286215076401E-5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>196.685</v>
+      </c>
+      <c r="D7">
+        <v>396.68299999999999</v>
+      </c>
+      <c r="F7">
+        <f>C7-C5</f>
+        <v>196.685</v>
+      </c>
+      <c r="G7">
+        <f>D7-D5</f>
+        <v>196.68299999999999</v>
+      </c>
+      <c r="H7">
+        <v>196.684</v>
+      </c>
+      <c r="I7">
+        <f>196.687</f>
+        <v>196.68700000000001</v>
+      </c>
+      <c r="K7">
+        <v>84.852000000000004</v>
+      </c>
+      <c r="L7" s="2">
+        <f>K7*P6+K7</f>
+        <v>84.846206062580791</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7">
+        <f>S5-S4</f>
+        <v>133.53000000026077</v>
+      </c>
+      <c r="X7">
+        <f>T5-T4</f>
+        <v>327.11999999918044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>140.34</v>
+      </c>
+      <c r="K8">
+        <v>23.56</v>
+      </c>
+      <c r="L8" s="2">
+        <f>K8*P6+K8</f>
+        <v>23.558391255767727</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="V8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>259.65499999999997</v>
+      </c>
+      <c r="D9">
+        <v>59.652999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f>S5+L6*SIN(W11*(PI()/200))</f>
+        <v>4468054.9543096377</v>
+      </c>
+      <c r="T9">
+        <f>T5+L6*COS(W11*(PI()/200))</f>
+        <v>5334622.2571533676</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>362.49799999999999</v>
+      </c>
+      <c r="D10">
+        <v>162.49700000000001</v>
+      </c>
+      <c r="F10">
+        <f>C10-C9</f>
+        <v>102.84300000000002</v>
+      </c>
+      <c r="G10">
+        <f>D10-D9</f>
+        <v>102.84400000000002</v>
+      </c>
+      <c r="H10">
+        <v>102.84399999999999</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <f>S9+L32*SIN(W12*(PI()/200))</f>
+        <v>4468109.0944624497</v>
+      </c>
+      <c r="T10">
+        <f>T9+L32*COS(W12*(PI()/200))</f>
+        <v>5334674.6090366123</v>
+      </c>
+      <c r="V10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="2">
+        <f>ACOS((W7*W8+X7*X8)/((W7^2+X7^2)^0.5*(X8)^0.5))*(400/PI())</f>
+        <v>49.344944510235905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>56.341999999999999</v>
+      </c>
+      <c r="D11">
+        <v>256.34500000000003</v>
+      </c>
+      <c r="F11">
+        <f>C11-C9+400</f>
+        <v>196.68700000000001</v>
+      </c>
+      <c r="G11">
+        <f>D11-D9</f>
+        <v>196.69200000000004</v>
+      </c>
+      <c r="H11">
+        <v>196.69</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <f>S10+L22*SIN(W13*(PI()/200))</f>
+        <v>4468235.1726084556</v>
+      </c>
+      <c r="T11">
+        <f>T10+L22*COS(W13*(PI()/200))</f>
+        <v>5334552.9751638584</v>
+      </c>
+      <c r="V11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" s="2">
+        <f>W10+200+(I6)</f>
+        <v>352.18694451023589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L12" s="2"/>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12">
+        <f>S11+L7*SIN(W14*(PI()/200))</f>
+        <v>4468179.0458679004</v>
+      </c>
+      <c r="T12">
+        <f>T11+L7*COS(W14*(PI()/200))</f>
+        <v>5334489.3460221244</v>
+      </c>
+      <c r="V12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" s="2">
+        <f>200+W11+I32-400-400</f>
+        <v>51.068944510235951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="V13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="2">
+        <f>200+W12+(400-I23)-400</f>
+        <v>148.85794451023594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L14" s="2"/>
+      <c r="V14" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14" s="2">
+        <f>W13+200+(400-I16)-400</f>
+        <v>246.01694451023593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>84.850999999999999</v>
+      </c>
+      <c r="L15" s="2">
+        <f>K15*P6+K15</f>
+        <v>84.845206130863644</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>102.83799999999999</v>
+      </c>
+      <c r="D16">
+        <v>302.83999999999997</v>
+      </c>
+      <c r="F16">
+        <f>C16-C15</f>
+        <v>102.83799999999999</v>
+      </c>
+      <c r="G16">
+        <f>D16-D15</f>
+        <v>102.83999999999997</v>
+      </c>
+      <c r="H16">
+        <f>102.839</f>
+        <v>102.839</v>
+      </c>
+      <c r="I16">
+        <v>102.84099999999999</v>
+      </c>
+      <c r="K16">
+        <v>175.196</v>
+      </c>
+      <c r="L16" s="2">
+        <f>K16*P6+K16</f>
+        <v>175.18403711568263</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="2">
+        <f>W10+200+C8</f>
+        <v>389.68494451023594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>146.303</v>
+      </c>
+      <c r="D18">
+        <v>346.30700000000002</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>S5+L8*SIN(R17*(PI()/200))</f>
+        <v>4468175.229549001</v>
+      </c>
+      <c r="T18">
+        <f>T5+L8*COS(R17*(PI()/200))</f>
+        <v>5334512.5998251764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>249.14599999999999</v>
+      </c>
+      <c r="D19">
+        <v>49.15</v>
+      </c>
+      <c r="F19">
+        <f>C19-C18</f>
+        <v>102.84299999999999</v>
+      </c>
+      <c r="G19">
+        <f>D19-D18+400</f>
+        <v>102.84299999999996</v>
+      </c>
+      <c r="H19">
+        <v>102.843</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="2">
+        <f>W11+200+C37-400-400</f>
+        <v>113.90794451023589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21">
+        <f>S9+L37*SIN(R20*(PI()/200))</f>
+        <v>4468069.9052453917</v>
+      </c>
+      <c r="T21">
+        <f>T9+L37*COS(R20*(PI()/200))</f>
+        <v>5334618.93791526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>200.00299999999999</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>175.19900000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <f>K22*P6+K22</f>
+        <v>175.18703691083405</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>102.209</v>
+      </c>
+      <c r="D23">
+        <v>302.21300000000002</v>
+      </c>
+      <c r="F23">
+        <f>C23-C22</f>
+        <v>102.209</v>
+      </c>
+      <c r="G23">
+        <f>D23-D22</f>
+        <v>102.21000000000004</v>
+      </c>
+      <c r="H23">
+        <v>102.21</v>
+      </c>
+      <c r="I23">
+        <v>102.211</v>
+      </c>
+      <c r="K23">
+        <v>75.316999999999993</v>
+      </c>
+      <c r="L23" s="2">
+        <f>K23*P6+K23</f>
+        <v>75.311857139671389</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="2">
+        <f>W11+200+C36-400-400</f>
+        <v>131.68594451023591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L24" s="2"/>
+      <c r="S24">
+        <f>S9+L36*SIN(R23*(PI()/200))</f>
+        <v>4468080.0035543777</v>
+      </c>
+      <c r="T24">
+        <f>T9+L36*COS(R23*(PI()/200))</f>
+        <v>5334608.6467000917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>200.00399999999999</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>102.21299999999999</v>
+      </c>
+      <c r="D26">
+        <v>302.21499999999997</v>
+      </c>
+      <c r="F26">
+        <f>C26-C25</f>
+        <v>102.21299999999999</v>
+      </c>
+      <c r="G26">
+        <f>D26-D25</f>
+        <v>102.21099999999998</v>
+      </c>
+      <c r="H26">
+        <v>102.212</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="Q26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>59.994</v>
+      </c>
+      <c r="K27">
+        <v>19.510999999999999</v>
+      </c>
+      <c r="L27" s="2">
+        <f>K27*P6+K27</f>
+        <v>19.509667733076576</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" s="2">
+        <f>W12+200+(400-I23+C27)-400</f>
+        <v>208.85194451023597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>35.500999999999998</v>
+      </c>
+      <c r="K28">
+        <v>30.558</v>
+      </c>
+      <c r="L28" s="2">
+        <f>K28*P6+K28</f>
+        <v>30.555913412298398</v>
+      </c>
+      <c r="S28">
+        <f>S10+L27*SIN(R27*(PI()/200))</f>
+        <v>4468106.3904536339</v>
+      </c>
+      <c r="T28">
+        <f>T10+L27*COS(R27*(PI()/200))</f>
+        <v>5334655.2876631785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L29" s="2"/>
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="Q30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" s="2">
+        <f>W12+200+(400-I23+C28)-400</f>
+        <v>184.35894451023592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>200.00299999999999</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>181.839</v>
+      </c>
+      <c r="L31" s="2">
+        <f>K31*P6+K31</f>
+        <v>181.82658351262936</v>
+      </c>
+      <c r="S31">
+        <f>S10+L28*SIN(R30*(PI()/200))</f>
+        <v>4468116.526418779</v>
+      </c>
+      <c r="T31">
+        <f>T10+L28*COS(R30*(PI()/200))</f>
+        <v>5334644.9707190217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>298.88099999999997</v>
+      </c>
+      <c r="D32">
+        <v>98.885000000000005</v>
+      </c>
+      <c r="F32">
+        <f>C32-C31</f>
+        <v>298.88099999999997</v>
+      </c>
+      <c r="G32">
+        <f>D32-D31+400</f>
+        <v>298.88200000000001</v>
+      </c>
+      <c r="H32">
+        <v>298.88200000000001</v>
+      </c>
+      <c r="I32">
+        <v>298.88200000000001</v>
+      </c>
+      <c r="K32">
+        <v>75.316999999999993</v>
+      </c>
+      <c r="L32" s="2">
+        <f>K32*P6+K32</f>
+        <v>75.311857139671389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="P33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>200.00399999999999</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>298.88099999999997</v>
+      </c>
+      <c r="D35">
+        <v>98.885000000000005</v>
+      </c>
+      <c r="F35">
+        <f>C35-C34</f>
+        <v>298.88099999999997</v>
+      </c>
+      <c r="G35">
+        <f>D35-D34+400</f>
+        <v>298.88100000000003</v>
+      </c>
+      <c r="H35">
+        <v>298.88099999999997</v>
+      </c>
+      <c r="Q35">
+        <f>(SIN(400-C41)*L41)/L6</f>
+        <v>0.12283860282695272</v>
+      </c>
+      <c r="R35">
+        <f>ASIN(Q35)*(200/PI())</f>
+        <v>7.8399498800325658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>379.49900000000002</v>
+      </c>
+      <c r="K36">
+        <v>28.51</v>
+      </c>
+      <c r="L36" s="2">
+        <f>K36*P6+K36</f>
+        <v>28.508053255600082</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>118</v>
+      </c>
+      <c r="R36" s="2">
+        <f>W11-R35</f>
+        <v>344.34699463020331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>361.721</v>
+      </c>
+      <c r="K37">
+        <v>15.316000000000001</v>
+      </c>
+      <c r="L37" s="2">
+        <f>K37*P6+K37</f>
+        <v>15.3149541796833</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37">
+        <f>S5+L40*SIN(R36*(PI()/200))</f>
+        <v>4468090.472752885</v>
+      </c>
+      <c r="T37">
+        <f>T5+L40*COS(R36*(PI()/200))</f>
+        <v>5334563.4276468353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L38" s="2"/>
+      <c r="P38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="Q39">
+        <f>(SIN((400-C47)*(PI()/200))*L47)/L22</f>
+        <v>9.8127644897336424E-3</v>
+      </c>
+      <c r="R39">
+        <f>ASIN(Q39)*(200/PI())</f>
+        <v>0.62471001543931237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>115.46299999999999</v>
+      </c>
+      <c r="L40" s="2">
+        <f>K40*P6+K40</f>
+        <v>115.45511585588748</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="2">
+        <f>W13-R39</f>
+        <v>148.23323449479662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>221.26</v>
+      </c>
+      <c r="K41">
+        <v>68.772999999999996</v>
+      </c>
+      <c r="L41" s="2">
+        <f>K41*P6+K41</f>
+        <v>68.768303982721307</v>
+      </c>
+      <c r="R41" t="s">
+        <v>64</v>
+      </c>
+      <c r="S41">
+        <f>S10+L46*SIN(R40*(PI()/200))</f>
+        <v>4468192.4401309593</v>
+      </c>
+      <c r="T41">
+        <f>T10+L46*COS(R40*(PI()/200))</f>
+        <v>5334595.7656415766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>253.71199999999999</v>
+      </c>
+      <c r="K42">
+        <v>53.9</v>
+      </c>
+      <c r="L42" s="2">
+        <f>K42*P6+K42</f>
+        <v>53.896319553730073</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>379.00900000000001</v>
+      </c>
+      <c r="K43">
+        <v>89.162999999999997</v>
+      </c>
+      <c r="L43" s="2">
+        <f>K43*P6+K43</f>
+        <v>89.156911695162052</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L44" s="2"/>
+      <c r="Q44" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="R45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>114.73699999999999</v>
+      </c>
+      <c r="L46" s="2">
+        <f>K46*P6+K46</f>
+        <v>114.7291654292454</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>125</v>
+      </c>
+      <c r="R46" s="2">
+        <f>R36+200+C43-400-400</f>
+        <v>123.35599463020333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>201.81</v>
+      </c>
+      <c r="K47">
+        <v>60.475999999999999</v>
+      </c>
+      <c r="L47" s="2">
+        <f>K47*P6+K47</f>
+        <v>60.471870525628567</v>
+      </c>
+      <c r="S47">
+        <f>S37+L43*SIN(R46*(PI()/200))</f>
+        <v>4468173.6965218969</v>
+      </c>
+      <c r="T47">
+        <f>T37+L43*COS(R46*(PI()/200))</f>
+        <v>5334531.44704061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>236.09100000000001</v>
+      </c>
+      <c r="K48">
+        <v>37.673000000000002</v>
+      </c>
+      <c r="L48" s="2">
+        <f>K48*P6+K48</f>
+        <v>37.670427579734195</v>
+      </c>
+      <c r="R48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>251.05699999999999</v>
+      </c>
+      <c r="K49">
+        <v>45.133000000000003</v>
+      </c>
+      <c r="L49" s="2">
+        <f>K49*P6+K49</f>
+        <v>45.129918189582554</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>126</v>
+      </c>
+      <c r="R49" s="2">
+        <f>R36+200+C42-400</f>
+        <v>398.0589946302033</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>380.26100000000002</v>
+      </c>
+      <c r="K50">
+        <v>93.656000000000006</v>
+      </c>
+      <c r="L50" s="2">
+        <f>K50*P6+K50</f>
+        <v>93.649604900262418</v>
+      </c>
+      <c r="S50">
+        <f>S37+L42*SIN(R49*(PI()/200))</f>
+        <v>4468088.8297495879</v>
+      </c>
+      <c r="T50">
+        <f>T37+L42*COS(R49*(PI()/200))</f>
+        <v>5334617.2989174873</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>388.37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51">
+        <v>90.486999999999995</v>
+      </c>
+      <c r="L51" s="2">
+        <f>K51*P6+K51</f>
+        <v>90.480821288652564</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q52" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q54" t="s">
+        <v>84</v>
+      </c>
+      <c r="R54" s="2">
+        <f>R40+200+C48-400</f>
+        <v>184.32423449479666</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S55">
+        <f>S41+L48*SIN(R54*(PI()/200))</f>
+        <v>4468201.6224343311</v>
+      </c>
+      <c r="T55">
+        <f>T41+L48*COS(R54*(PI()/200))</f>
+        <v>5334559.2314600637</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q57" t="s">
+        <v>128</v>
+      </c>
+      <c r="R57" s="2">
+        <f>R40+200+C49-400</f>
+        <v>199.29023449479666</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <f>S41+L49*SIN(R57*(PI()/200))</f>
+        <v>4468192.9432726614</v>
+      </c>
+      <c r="T58">
+        <f>T41+L49*COS(R57*(PI()/200))</f>
+        <v>5334550.6385281719</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q60" t="s">
+        <v>129</v>
+      </c>
+      <c r="R60" s="2">
+        <f>R40+200+C50-400</f>
+        <v>328.49423449479673</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <f>S41+L50*SIN(R60*(PI()/200))</f>
+        <v>4468108.0155444238</v>
+      </c>
+      <c r="T61">
+        <f>T41+L50*COS(R60*(PI()/200))</f>
+        <v>5334636.2963421168</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q63" t="s">
+        <v>130</v>
+      </c>
+      <c r="R63" s="2">
+        <f>R40+200+C51-400</f>
+        <v>336.60323449479665</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S64">
+        <f>S41+L51*SIN(R60*(PI()/200))</f>
+        <v>4468110.8721848391</v>
+      </c>
+      <c r="T64">
+        <f>T41+L51*COS(R60*(PI()/200))</f>
+        <v>5334634.9249212788</v>
+      </c>
+      <c r="U64">
+        <f>S31</f>
+        <v>4468116.526418779</v>
+      </c>
+      <c r="V64">
+        <f>T31</f>
+        <v>5334644.9707190217</v>
+      </c>
+      <c r="W64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q69">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="70" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q70">
+        <f>12.22</f>
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="71" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q71">
+        <f>ATAN(Q70/Q69)*(200/PI())</f>
+        <v>45.12726318413641</v>
+      </c>
+    </row>
+    <row r="72" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R72" s="2">
+        <f>R17-Q71</f>
+        <v>344.55768132609956</v>
+      </c>
+    </row>
+    <row r="73" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <f>S18+Q69*SIN(R72*(PI()/200))</f>
+        <v>4468164.3297255365</v>
+      </c>
+      <c r="T73">
+        <f>T18+Q69*COS(R72*(PI()/200))</f>
+        <v>5334521.7789508672</v>
+      </c>
+    </row>
+    <row r="75" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q76">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="77" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q77">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="78" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q78">
+        <f>ATAN(Q76/Q77)*(200/PI())</f>
+        <v>55.221409395296327</v>
+      </c>
+    </row>
+    <row r="79" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P79" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>141</v>
+      </c>
+      <c r="R79" s="2">
+        <f>R57-Q78</f>
+        <v>144.06882509950034</v>
+      </c>
+    </row>
+    <row r="80" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q80">
+        <f>(Q76^2+Q77^2)^0.5</f>
+        <v>18.815722149309071</v>
+      </c>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S81">
+        <f>S58+Q80*SIN(R79*(PI()/200))</f>
+        <v>4468207.4280609814</v>
+      </c>
+      <c r="T81">
+        <f>T58+Q80*COS(R79*(PI()/200))</f>
+        <v>5334538.6292689387</v>
       </c>
     </row>
   </sheetData>

--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E97ECB-45C7-4987-A2F2-9ECB26BCEBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CD9425-CC0B-4E2E-92C9-6C0B1564E2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="GK" sheetId="2" r:id="rId2"/>
+    <sheet name="UTM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="144">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -463,6 +464,9 @@
   </si>
   <si>
     <t>HD</t>
+  </si>
+  <si>
+    <t>Ostwert</t>
   </si>
 </sst>
 </file>
@@ -1069,52 +1073,52 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$S$3:$S$32</c:f>
+              <c:f>GK!$S$3:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4468045.5</c:v>
+                  <c:v>32691104.289999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4468045.5</c:v>
+                  <c:v>32691104.289999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4468179.03</c:v>
+                  <c:v>32691225.013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4468054.9543096377</c:v>
+                  <c:v>32691046.149110068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4468109.0944624497</c:v>
+                  <c:v>32691058.555756066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4468235.1726084556</c:v>
+                  <c:v>32691232.324325249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4468179.0458679004</c:v>
+                  <c:v>32691225.028095227</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4468175.229549001</c:v>
+                  <c:v>32691208.125894014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4468069.9052453917</c:v>
+                  <c:v>32691060.149341226</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4468080.0035543777</c:v>
+                  <c:v>32691074.393949252</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4468106.3904536339</c:v>
+                  <c:v>32691067.874070495</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4468116.526418779</c:v>
+                  <c:v>32691082.16418593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$T$3:$T$32</c:f>
+              <c:f>GK!$T$3:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1125,34 +1129,34 @@
                   <c:v>5334162.2300000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5334489.3499999996</c:v>
+                  <c:v>5335904.7699999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5334622.2571533676</c:v>
+                  <c:v>5335937.8688882738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5334674.6090366123</c:v>
+                  <c:v>5336012.1847437089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5334552.9751638584</c:v>
+                  <c:v>5335989.3449267028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5334489.3460221244</c:v>
+                  <c:v>5335904.7762228288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5334512.5998251764</c:v>
+                  <c:v>5335921.2104839645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5334618.93791526</c:v>
+                  <c:v>5335944.0925546549</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5334608.6467000917</c:v>
+                  <c:v>5335941.8217898998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5334655.2876631785</c:v>
+                  <c:v>5335995.0350177083</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5334644.9707190217</c:v>
+                  <c:v>5335992.765753055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,50 +1173,50 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$S$17:$S$32</c:f>
+              <c:f>GK!$S$17:$S$32</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>389,685</c:v>
+                  <c:v>349,147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4468175,23</c:v>
+                  <c:v>32691208,13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113,908</c:v>
+                  <c:v>73,370</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4468069,905</c:v>
+                  <c:v>32691060,15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>J</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131,686</c:v>
+                  <c:v>91,148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4468080,004</c:v>
+                  <c:v>32691074,39</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>208,852</c:v>
+                  <c:v>168,314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4468106,39</c:v>
+                  <c:v>32691067,87</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>L</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>184,359</c:v>
+                  <c:v>143,821</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4468116,526</c:v>
+                  <c:v>32691082,16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1241,48 +1245,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$S$17:$S$33</c:f>
+              <c:f>GK!$S$17:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>4468175.229549001</c:v>
+                  <c:v>32691208.125894014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4468069.9052453917</c:v>
+                  <c:v>32691060.149341226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4468080.0035543777</c:v>
+                  <c:v>32691074.393949252</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4468106.3904536339</c:v>
+                  <c:v>32691067.874070495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4468116.526418779</c:v>
+                  <c:v>32691082.16418593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$T$17:$T$32</c:f>
+              <c:f>GK!$T$17:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>5334512.5998251764</c:v>
+                  <c:v>5335921.2104839645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5334618.93791526</c:v>
+                  <c:v>5335944.0925546549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5334608.6467000917</c:v>
+                  <c:v>5335941.8217898998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5334655.2876631785</c:v>
+                  <c:v>5335995.0350177083</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5334644.9707190217</c:v>
+                  <c:v>5335992.765753055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1303,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$R$37</c:f>
+              <c:f>GK!$R$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1332,30 +1336,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$S$35:$S$42</c:f>
+              <c:f>GK!$S$35:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>4468090.472752885</c:v>
+                  <c:v>32691109.71453901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4468192.4401309593</c:v>
+                  <c:v>32691172.497133248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$T$35:$T$42</c:f>
+              <c:f>GK!$T$35:$T$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>5334563.4276468353</c:v>
+                  <c:v>5335911.6767340647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5334595.7656415766</c:v>
+                  <c:v>5335998.3444818128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,54 +1401,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$S$45:$S$65</c:f>
+              <c:f>GK!$S$45:$S$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="2">
-                  <c:v>4468173.6965218969</c:v>
+                  <c:v>32691195.681035489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4468088.8297495879</c:v>
+                  <c:v>32691076.347295664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4468201.6224343311</c:v>
+                  <c:v>32691201.615573071</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4468192.9432726614</c:v>
+                  <c:v>32691199.745968465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4468108.0155444238</c:v>
+                  <c:v>32691080.478631593</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4468110.8721848391</c:v>
+                  <c:v>32691083.592237521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$T$45:$T$64</c:f>
+              <c:f>GK!$T$45:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="2">
-                  <c:v>5334531.44704061</c:v>
+                  <c:v>5335935.4588757679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5334617.2989174873</c:v>
+                  <c:v>5335954.0316064823</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5334559.2314600637</c:v>
+                  <c:v>5335974.4198647374</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5334550.6385281719</c:v>
+                  <c:v>5335962.3451219816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5334636.2963421168</c:v>
+                  <c:v>5335980.7254091483</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5334634.9249212788</c:v>
+                  <c:v>5335981.3215810927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,30 +1490,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$S$71:$S$93</c:f>
+              <c:f>GK!$S$71:$S$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="2">
-                  <c:v>4468164.3297255365</c:v>
+                  <c:v>32691193.904290069</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4468207.4280609814</c:v>
+                  <c:v>32691218.532759439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$T$71:$T$93</c:f>
+              <c:f>GK!$T$71:$T$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="2">
-                  <c:v>5334521.7789508672</c:v>
+                  <c:v>5335922.1096398355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5334538.6292689387</c:v>
+                  <c:v>5335961.3021047637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,6 +1522,723 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7687-4825-BCC9-1655483DAA32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409041192"/>
+        <c:axId val="412998184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409041192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412998184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412998184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409041192"/>
+        <c:crossesAt val="4468000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6467407407407404E-2"/>
+          <c:y val="1.9836848714287578E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$3:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4468045.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4468045.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4468179.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4468054.9543096377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468109.0944624497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4468235.1726084556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4468179.0458679004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4468175.229549001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4468069.9052453917</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4468080.0035543777</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4468106.3904536339</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4468116.526418779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$3:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5334182.2300000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5334162.2300000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5334489.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5334622.2571533676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5334674.6090366123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5334552.9751638584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5334489.3460221244</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5334512.5998251764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5334618.93791526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5334608.6467000917</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5334655.2876631785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5334644.9707190217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8D8-43FA-8987-BA53BC13EBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UTM!$S$17:$S$32</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>389,685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4468175,23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113,908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4468069,905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131,686</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468080,004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208,852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4468106,39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184,359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4468116,526</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$17:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>4468175.229549001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4468069.9052453917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468080.0035543777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4468106.3904536339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4468116.526418779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$17:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>5334512.5998251764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5334618.93791526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5334608.6467000917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5334655.2876631785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5334644.9707190217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8D8-43FA-8987-BA53BC13EBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UTM!$R$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$35:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>4468090.472752885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4468192.4401309593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$35:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>5334563.4276468353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5334595.7656415766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8D8-43FA-8987-BA53BC13EBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FSP_Punkte</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$45:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>4468173.6965218969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4468088.8297495879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4468201.6224343311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4468192.9432726614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4468108.0155444238</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4468110.8721848391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$45:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="2">
+                  <c:v>5334531.44704061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5334617.2989174873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5334559.2314600637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5334550.6385281719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5334636.2963421168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5334634.9249212788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F8D8-43FA-8987-BA53BC13EBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>KP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$71:$S$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>4468164.3297255365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4468207.4280609814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$71:$T$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>5334521.7789508672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5334538.6292689387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F8D8-43FA-8987-BA53BC13EBC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1742,6 +2463,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2813,6 +3574,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2879,6 +4156,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1100348</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>67779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>377698</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>170862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CD8888-85AD-4A81-8DBC-91DB239BBAEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4842,7 +6162,1463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" customWidth="1"/>
+    <col min="17" max="17" width="16.08984375" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" customWidth="1"/>
+    <col min="22" max="22" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>6380000</v>
+      </c>
+      <c r="R3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3">
+        <f>S4</f>
+        <v>32691104.289999999</v>
+      </c>
+      <c r="T3">
+        <f>T4+20</f>
+        <v>5334182.2300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>515</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>32691104.289999999</v>
+      </c>
+      <c r="T4">
+        <v>5334162.2300000004</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5">
+        <f>S5-32500000</f>
+        <v>191225.01300000027</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5">
+        <v>32691225.013</v>
+      </c>
+      <c r="T5">
+        <v>5335904.7699999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>102.842</v>
+      </c>
+      <c r="D6">
+        <v>302.83999999999997</v>
+      </c>
+      <c r="F6">
+        <f>C6-C5</f>
+        <v>102.842</v>
+      </c>
+      <c r="G6">
+        <f>D6-D5</f>
+        <v>102.83999999999997</v>
+      </c>
+      <c r="H6">
+        <v>102.84099999999999</v>
+      </c>
+      <c r="I6">
+        <v>102.842</v>
+      </c>
+      <c r="K6">
+        <v>181.834</v>
+      </c>
+      <c r="L6" s="2">
+        <f>K6*P6+K6-0.0004</f>
+        <v>181.90059792833327</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6">
+        <f>((P5^2)/(2*P3^2))-(P4/P3)</f>
+        <v>3.6845655011313606E-4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>196.685</v>
+      </c>
+      <c r="D7">
+        <v>396.68299999999999</v>
+      </c>
+      <c r="F7">
+        <f>C7-C5</f>
+        <v>196.685</v>
+      </c>
+      <c r="G7">
+        <f>D7-D5</f>
+        <v>196.68299999999999</v>
+      </c>
+      <c r="H7">
+        <v>196.684</v>
+      </c>
+      <c r="I7">
+        <f>196.687</f>
+        <v>196.68700000000001</v>
+      </c>
+      <c r="K7">
+        <v>84.852000000000004</v>
+      </c>
+      <c r="L7" s="2">
+        <f>K7*P6+K7-0.0004</f>
+        <v>84.882864275190201</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7">
+        <f>S5-S4</f>
+        <v>120.72300000116229</v>
+      </c>
+      <c r="X7">
+        <f>T5-T4</f>
+        <v>1742.5399999991059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>140.34</v>
+      </c>
+      <c r="K8">
+        <v>23.56</v>
+      </c>
+      <c r="L8" s="2">
+        <f>K8*P6+K8-0.0004</f>
+        <v>23.568280836320664</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="V8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>259.65499999999997</v>
+      </c>
+      <c r="D9">
+        <v>59.652999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f>S5+L6*SIN(W11*(PI()/200))</f>
+        <v>32691046.149110068</v>
+      </c>
+      <c r="T9">
+        <f>T5+L6*COS(W11*(PI()/200))</f>
+        <v>5335937.8688882738</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>362.49799999999999</v>
+      </c>
+      <c r="D10">
+        <v>162.49700000000001</v>
+      </c>
+      <c r="F10">
+        <f>C10-C9</f>
+        <v>102.84300000000002</v>
+      </c>
+      <c r="G10">
+        <f>D10-D9</f>
+        <v>102.84400000000002</v>
+      </c>
+      <c r="H10">
+        <v>102.84399999999999</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <f>S9+L32*SIN(W12*(PI()/200))</f>
+        <v>32691058.555756066</v>
+      </c>
+      <c r="T10">
+        <f>T9+L32*COS(W12*(PI()/200))</f>
+        <v>5336012.1847437089</v>
+      </c>
+      <c r="V10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="2">
+        <f>ACOS((W7*W8+X7*X8)/((W7^2+X7^2)^0.5*(X8)^0.5))*(400/PI())</f>
+        <v>8.8069188424111822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>56.341999999999999</v>
+      </c>
+      <c r="D11">
+        <v>256.34500000000003</v>
+      </c>
+      <c r="F11">
+        <f>C11-C9+400</f>
+        <v>196.68700000000001</v>
+      </c>
+      <c r="G11">
+        <f>D11-D9</f>
+        <v>196.69200000000004</v>
+      </c>
+      <c r="H11">
+        <v>196.69</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <f>S10+L22*SIN(W13*(PI()/200))</f>
+        <v>32691232.324325249</v>
+      </c>
+      <c r="T11">
+        <f>T10+L22*COS(W13*(PI()/200))</f>
+        <v>5335989.3449267028</v>
+      </c>
+      <c r="V11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" s="2">
+        <f>W10+200+(I6)</f>
+        <v>311.64891884241121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L12" s="2"/>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12">
+        <f>S11+L7*SIN(W14*(PI()/200))</f>
+        <v>32691225.028095227</v>
+      </c>
+      <c r="T12">
+        <f>T11+L7*COS(W14*(PI()/200))</f>
+        <v>5335904.7762228288</v>
+      </c>
+      <c r="V12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" s="2">
+        <f>200+W11+I32-400-400</f>
+        <v>10.530918842411211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="V13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="2">
+        <f>200+W12+(400-I23)-400</f>
+        <v>108.3199188424112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L14" s="2"/>
+      <c r="V14" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14" s="2">
+        <f>W13+200+(400-I16)-400</f>
+        <v>205.47891884241119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>84.850999999999999</v>
+      </c>
+      <c r="L15" s="2">
+        <f>K15*P6+K15-0.0004</f>
+        <v>84.881863906733656</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>102.83799999999999</v>
+      </c>
+      <c r="D16">
+        <v>302.83999999999997</v>
+      </c>
+      <c r="F16">
+        <f>C16-C15</f>
+        <v>102.83799999999999</v>
+      </c>
+      <c r="G16">
+        <f>D16-D15</f>
+        <v>102.83999999999997</v>
+      </c>
+      <c r="H16">
+        <f>102.839</f>
+        <v>102.839</v>
+      </c>
+      <c r="I16">
+        <v>102.84099999999999</v>
+      </c>
+      <c r="K16">
+        <v>175.196</v>
+      </c>
+      <c r="L16" s="2">
+        <f>K16*P6+K16-0.0004</f>
+        <v>175.26015211375361</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="2">
+        <f>W10+200+C8</f>
+        <v>349.1469188424112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>146.303</v>
+      </c>
+      <c r="D18">
+        <v>346.30700000000002</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>S5+L8*SIN(R17*(PI()/200))</f>
+        <v>32691208.125894014</v>
+      </c>
+      <c r="T18">
+        <f>T5+L8*COS(R17*(PI()/200))</f>
+        <v>5335921.2104839645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>249.14599999999999</v>
+      </c>
+      <c r="D19">
+        <v>49.15</v>
+      </c>
+      <c r="F19">
+        <f>C19-C18</f>
+        <v>102.84299999999999</v>
+      </c>
+      <c r="G19">
+        <f>D19-D18+400</f>
+        <v>102.84299999999996</v>
+      </c>
+      <c r="H19">
+        <v>102.843</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="2">
+        <f>W11+200+C37-400-400</f>
+        <v>73.369918842411153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21">
+        <f>S9+L37*SIN(R20*(PI()/200))</f>
+        <v>32691060.149341226</v>
+      </c>
+      <c r="T21">
+        <f>T9+L37*COS(R20*(PI()/200))</f>
+        <v>5335944.0925546549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>200.00299999999999</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>175.19900000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <f>K22*P6+K22-0.0004</f>
+        <v>175.26315321912327</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>102.209</v>
+      </c>
+      <c r="D23">
+        <v>302.21300000000002</v>
+      </c>
+      <c r="F23">
+        <f>C23-C22</f>
+        <v>102.209</v>
+      </c>
+      <c r="G23">
+        <f>D23-D22</f>
+        <v>102.21000000000004</v>
+      </c>
+      <c r="H23">
+        <v>102.21</v>
+      </c>
+      <c r="I23">
+        <v>102.211</v>
+      </c>
+      <c r="K23">
+        <v>75.316999999999993</v>
+      </c>
+      <c r="L23" s="2">
+        <f>K23*P6+K23-0.0004</f>
+        <v>75.344351041984865</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="2">
+        <f>W11+200+C36-400-400</f>
+        <v>91.147918842411173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L24" s="2"/>
+      <c r="S24">
+        <f>S9+L36*SIN(R23*(PI()/200))</f>
+        <v>32691074.393949252</v>
+      </c>
+      <c r="T24">
+        <f>T9+L36*COS(R23*(PI()/200))</f>
+        <v>5335941.8217898998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>200.00399999999999</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>102.21299999999999</v>
+      </c>
+      <c r="D26">
+        <v>302.21499999999997</v>
+      </c>
+      <c r="F26">
+        <f>C26-C25</f>
+        <v>102.21299999999999</v>
+      </c>
+      <c r="G26">
+        <f>D26-D25</f>
+        <v>102.21099999999998</v>
+      </c>
+      <c r="H26">
+        <v>102.212</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="Q26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>59.994</v>
+      </c>
+      <c r="K27">
+        <v>19.510999999999999</v>
+      </c>
+      <c r="L27" s="2">
+        <f>K27*P6+K27-0.0004</f>
+        <v>19.517788955749257</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" s="2">
+        <f>W12+200+(400-I23+C27)-400</f>
+        <v>168.31391884241123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>35.500999999999998</v>
+      </c>
+      <c r="K28">
+        <v>30.558</v>
+      </c>
+      <c r="L28" s="2">
+        <f>K28*P6+K28-0.0004</f>
+        <v>30.568859295258356</v>
+      </c>
+      <c r="S28">
+        <f>S10+L27*SIN(R27*(PI()/200))</f>
+        <v>32691067.874070495</v>
+      </c>
+      <c r="T28">
+        <f>T10+L27*COS(R27*(PI()/200))</f>
+        <v>5335995.0350177083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L29" s="2"/>
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="Q30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" s="2">
+        <f>W12+200+(400-I23+C28)-400</f>
+        <v>143.82091884241117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>200.00299999999999</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>181.839</v>
+      </c>
+      <c r="L31" s="2">
+        <f>K31*P6+K31-0.0004</f>
+        <v>181.90559977061602</v>
+      </c>
+      <c r="S31">
+        <f>S10+L28*SIN(R30*(PI()/200))</f>
+        <v>32691082.16418593</v>
+      </c>
+      <c r="T31">
+        <f>T10+L28*COS(R30*(PI()/200))</f>
+        <v>5335992.765753055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>298.88099999999997</v>
+      </c>
+      <c r="D32">
+        <v>98.885000000000005</v>
+      </c>
+      <c r="F32">
+        <f>C32-C31</f>
+        <v>298.88099999999997</v>
+      </c>
+      <c r="G32">
+        <f>D32-D31+400</f>
+        <v>298.88200000000001</v>
+      </c>
+      <c r="H32">
+        <v>298.88200000000001</v>
+      </c>
+      <c r="I32">
+        <v>298.88200000000001</v>
+      </c>
+      <c r="K32">
+        <v>75.316999999999993</v>
+      </c>
+      <c r="L32" s="2">
+        <f>K32*P6+K32-0.0004</f>
+        <v>75.344351041984865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="P33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>200.00399999999999</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>298.88099999999997</v>
+      </c>
+      <c r="D35">
+        <v>98.885000000000005</v>
+      </c>
+      <c r="F35">
+        <f>C35-C34</f>
+        <v>298.88099999999997</v>
+      </c>
+      <c r="G35">
+        <f>D35-D34+400</f>
+        <v>298.88100000000003</v>
+      </c>
+      <c r="H35">
+        <v>298.88099999999997</v>
+      </c>
+      <c r="Q35">
+        <f>(SIN(400-C41)*L41)/L6</f>
+        <v>0.12283815875270812</v>
+      </c>
+      <c r="R35">
+        <f>ASIN(Q35)*(200/PI())</f>
+        <v>7.8399213936518812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>379.49900000000002</v>
+      </c>
+      <c r="K36">
+        <v>28.51</v>
+      </c>
+      <c r="L36" s="2">
+        <f>K36*P6+K36-0.0004</f>
+        <v>28.520104696243727</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>118</v>
+      </c>
+      <c r="R36" s="2">
+        <f>W11-R35</f>
+        <v>303.80899744875933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>361.721</v>
+      </c>
+      <c r="K37">
+        <v>15.316000000000001</v>
+      </c>
+      <c r="L37" s="2">
+        <f>K37*P6+K37-0.0004</f>
+        <v>15.321243280521532</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37">
+        <f>S5+L40*SIN(R36*(PI()/200))</f>
+        <v>32691109.71453901</v>
+      </c>
+      <c r="T37">
+        <f>T5+L40*COS(R36*(PI()/200))</f>
+        <v>5335911.6767340647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L38" s="2"/>
+      <c r="P38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="Q39">
+        <f>(SIN((400-C47)*(PI()/200))*L47)/L22</f>
+        <v>9.8127220054614207E-3</v>
+      </c>
+      <c r="R39">
+        <f>ASIN(Q39)*(200/PI())</f>
+        <v>0.62470731067631735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>115.46299999999999</v>
+      </c>
+      <c r="L40" s="2">
+        <f>K40*P6+K40-0.0004</f>
+        <v>115.5051430986457</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="2">
+        <f>W13-R39</f>
+        <v>107.69521153173488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>221.26</v>
+      </c>
+      <c r="K41">
+        <v>68.772999999999996</v>
+      </c>
+      <c r="L41" s="2">
+        <f>K41*P6+K41-0.0004</f>
+        <v>68.797939862320931</v>
+      </c>
+      <c r="R41" t="s">
+        <v>64</v>
+      </c>
+      <c r="S41">
+        <f>S10+L46*SIN(R40*(PI()/200))</f>
+        <v>32691172.497133248</v>
+      </c>
+      <c r="T41">
+        <f>T10+L46*COS(R40*(PI()/200))</f>
+        <v>5335998.3444818128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>253.71199999999999</v>
+      </c>
+      <c r="K42">
+        <v>53.9</v>
+      </c>
+      <c r="L42" s="2">
+        <f>K42*P6+K42-0.0004</f>
+        <v>53.919459808051094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>379.00900000000001</v>
+      </c>
+      <c r="K43">
+        <v>89.162999999999997</v>
+      </c>
+      <c r="L43" s="2">
+        <f>K43*P6+K43-0.0004</f>
+        <v>89.195452691377739</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L44" s="2"/>
+      <c r="Q44" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="R45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>114.73699999999999</v>
+      </c>
+      <c r="L46" s="2">
+        <f>K46*P6+K46-0.0004</f>
+        <v>114.77887559919033</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>125</v>
+      </c>
+      <c r="R46" s="2">
+        <f>R36+200+C43-400-400</f>
+        <v>82.817997448759343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>201.81</v>
+      </c>
+      <c r="K47">
+        <v>60.475999999999999</v>
+      </c>
+      <c r="L47" s="2">
+        <f>K47*P6+K47-0.0004</f>
+        <v>60.497882778324644</v>
+      </c>
+      <c r="S47">
+        <f>S37+L43*SIN(R46*(PI()/200))</f>
+        <v>32691195.681035489</v>
+      </c>
+      <c r="T47">
+        <f>T37+L43*COS(R46*(PI()/200))</f>
+        <v>5335935.4588757679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>236.09100000000001</v>
+      </c>
+      <c r="K48">
+        <v>37.673000000000002</v>
+      </c>
+      <c r="L48" s="2">
+        <f>K48*P6+K48-0.0004</f>
+        <v>37.686480863612417</v>
+      </c>
+      <c r="R48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>251.05699999999999</v>
+      </c>
+      <c r="K49">
+        <v>45.133000000000003</v>
+      </c>
+      <c r="L49" s="2">
+        <f>K49*P6+K49-0.0004</f>
+        <v>45.14922954947626</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>126</v>
+      </c>
+      <c r="R49" s="2">
+        <f>R36+200+C42-400</f>
+        <v>357.52099744875932</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>380.26100000000002</v>
+      </c>
+      <c r="K50">
+        <v>93.656000000000006</v>
+      </c>
+      <c r="L50" s="2">
+        <f>K50*P6+K50-0.0004</f>
+        <v>93.690108166657396</v>
+      </c>
+      <c r="S50">
+        <f>S37+L42*SIN(R49*(PI()/200))</f>
+        <v>32691076.347295664</v>
+      </c>
+      <c r="T50">
+        <f>T37+L42*COS(R49*(PI()/200))</f>
+        <v>5335954.0316064823</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>388.37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51">
+        <v>90.486999999999995</v>
+      </c>
+      <c r="L51" s="2">
+        <f>K51*P6+K51-0.0004</f>
+        <v>90.519940527850082</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q52" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q54" t="s">
+        <v>84</v>
+      </c>
+      <c r="R54" s="2">
+        <f>R40+200+C48-400</f>
+        <v>143.78621153173492</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S55">
+        <f>S41+L48*SIN(R54*(PI()/200))</f>
+        <v>32691201.615573071</v>
+      </c>
+      <c r="T55">
+        <f>T41+L48*COS(R54*(PI()/200))</f>
+        <v>5335974.4198647374</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q57" t="s">
+        <v>128</v>
+      </c>
+      <c r="R57" s="2">
+        <f>R40+200+C49-400</f>
+        <v>158.75221153173493</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <f>S41+L49*SIN(R57*(PI()/200))</f>
+        <v>32691199.745968465</v>
+      </c>
+      <c r="T58">
+        <f>T41+L49*COS(R57*(PI()/200))</f>
+        <v>5335962.3451219816</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q60" t="s">
+        <v>129</v>
+      </c>
+      <c r="R60" s="2">
+        <f>R40+200+C50-400</f>
+        <v>287.95621153173488</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <f>S41+L50*SIN(R60*(PI()/200))</f>
+        <v>32691080.478631593</v>
+      </c>
+      <c r="T61">
+        <f>T41+L50*COS(R60*(PI()/200))</f>
+        <v>5335980.7254091483</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="R62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q63" t="s">
+        <v>130</v>
+      </c>
+      <c r="R63" s="2">
+        <f>R40+200+C51-400</f>
+        <v>296.06521153173492</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="S64">
+        <f>S41+L51*SIN(R60*(PI()/200))</f>
+        <v>32691083.592237521</v>
+      </c>
+      <c r="T64">
+        <f>T41+L51*COS(R60*(PI()/200))</f>
+        <v>5335981.3215810927</v>
+      </c>
+      <c r="U64">
+        <f>S31</f>
+        <v>32691082.16418593</v>
+      </c>
+      <c r="V64">
+        <f>T31</f>
+        <v>5335992.765753055</v>
+      </c>
+      <c r="W64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q69">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="70" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q70">
+        <f>12.22</f>
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="71" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q71">
+        <f>ATAN(Q70/Q69)*(200/PI())</f>
+        <v>45.12726318413641</v>
+      </c>
+    </row>
+    <row r="72" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R72" s="2">
+        <f>R17-Q71</f>
+        <v>304.01965565827481</v>
+      </c>
+    </row>
+    <row r="73" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <f>S18+Q69*SIN(R72*(PI()/200))</f>
+        <v>32691193.904290069</v>
+      </c>
+      <c r="T73">
+        <f>T18+Q69*COS(R72*(PI()/200))</f>
+        <v>5335922.1096398355</v>
+      </c>
+    </row>
+    <row r="75" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q76">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="77" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q77">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="78" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q78">
+        <f>ATAN(Q76/Q77)*(200/PI())</f>
+        <v>55.221409395296327</v>
+      </c>
+    </row>
+    <row r="79" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P79" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>141</v>
+      </c>
+      <c r="R79" s="2">
+        <f>R57-Q78</f>
+        <v>103.53080213643861</v>
+      </c>
+    </row>
+    <row r="80" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q80">
+        <f>(Q76^2+Q77^2)^0.5</f>
+        <v>18.815722149309071</v>
+      </c>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S81">
+        <f>S58+Q80*SIN(R79*(PI()/200))</f>
+        <v>32691218.532759439</v>
+      </c>
+      <c r="T81">
+        <f>T58+Q80*COS(R79*(PI()/200))</f>
+        <v>5335961.3021047637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
+  <dimension ref="A2:X81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S78" sqref="S78"/>
     </sheetView>
   </sheetViews>
